--- a/refs/input3.xlsx
+++ b/refs/input3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Gabriel\Universidade\PO2\refs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49E48BD-B0CC-4DA0-8D83-A764525F2AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE292EA-00B6-4685-9DCD-3267B4689D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{A07F0FBE-ABF8-4397-B44B-22BA699F2F5E}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">Planilha1!$B$13:$K$13</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Planilha1!$B$6:$E$6</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Planilha1!$B$13:$K$13</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Planilha1!$N$3:$N$12</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Planilha1!$B$6:$E$6</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Planilha1!$H$3:$H$5</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
@@ -32,13 +32,13 @@
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Planilha1!$N$2</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Planilha1!$H$2</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">5</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">"binário"</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Planilha1!$M$3:$M$12</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Planilha1!$G$3:$G$5</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Variáveis:</t>
   </si>
@@ -124,31 +124,13 @@
   </si>
   <si>
     <t>x4</t>
-  </si>
-  <si>
-    <t>x5</t>
-  </si>
-  <si>
-    <t>x6</t>
-  </si>
-  <si>
-    <t>x7</t>
-  </si>
-  <si>
-    <t>x8</t>
-  </si>
-  <si>
-    <t>x9</t>
-  </si>
-  <si>
-    <t>x10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,12 +156,6 @@
     <font>
       <sz val="11"/>
       <color theme="4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -235,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -265,9 +241,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -584,20 +557,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A08D6A4-E249-4FB5-AEAB-1B24F9314551}">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -613,564 +586,148 @@
       <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="2" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="4">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D2" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0</v>
-      </c>
-      <c r="J2" s="4">
-        <v>0</v>
-      </c>
-      <c r="K2" s="4">
-        <v>0</v>
-      </c>
-      <c r="L2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="6" cm="1">
-        <f t="array" ref="N2:N12">MMULT(B2:K12, TRANSPOSE(B13:K13))</f>
-        <v>0</v>
-      </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="6" cm="1">
+        <f t="array" ref="H2:H5">MMULT(B2:E5, TRANSPOSE(B6:E6))</f>
+        <v>-1.4</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4">
-        <v>0</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="4">
-        <v>0</v>
-      </c>
-      <c r="N3" s="7">
-        <v>0</v>
-      </c>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C4" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D4" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <v>0</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M4" s="4">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H4" s="7">
+        <v>7</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>-2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>5</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="4">
+        <v>-5</v>
+      </c>
+      <c r="H5" s="7">
+        <v>-1.4</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="7">
         <v>0</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C6" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="D6" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="4">
+      <c r="E6" s="7">
         <v>0</v>
       </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4">
-        <v>0</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M5" s="4">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
     </row>
-    <row r="6" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="4">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
-        <v>0</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M6" s="4">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
     </row>
-    <row r="7" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="4">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <v>0</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M7" s="4">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-    </row>
-    <row r="8" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="4">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
-        <v>0</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M8" s="4">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-    </row>
-    <row r="9" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="4">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
-        <v>0</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M9" s="4">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-    </row>
-    <row r="10" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="4">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4">
-        <v>0</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M10" s="4">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-    </row>
-    <row r="11" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="4">
-        <v>0</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0</v>
-      </c>
-      <c r="K11" s="4">
-        <v>0</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M11" s="4">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-    </row>
-    <row r="12" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="4">
-        <v>0</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <v>0</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M12" s="11">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-    </row>
-    <row r="13" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="7">
-        <v>0</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0</v>
-      </c>
-      <c r="E13" s="7">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0</v>
-      </c>
-      <c r="G13" s="7">
-        <v>0</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7">
-        <v>0</v>
-      </c>
-      <c r="K13" s="7">
-        <v>0</v>
-      </c>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
